--- a/PERSONAL/testscriptdata/logindata.xlsx
+++ b/PERSONAL/testscriptdata/logindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
